--- a/Code/Results/Cases/Case_5_129/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_129/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.36187159538041</v>
+        <v>15.20717213437361</v>
       </c>
       <c r="C2">
-        <v>18.78316758016598</v>
+        <v>11.23098386416958</v>
       </c>
       <c r="D2">
-        <v>3.667102608023634</v>
+        <v>3.691276806880144</v>
       </c>
       <c r="E2">
-        <v>30.13972387202399</v>
+        <v>16.58230678704313</v>
       </c>
       <c r="F2">
-        <v>17.20286171920608</v>
+        <v>19.73925079067827</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>12.72255374862494</v>
+        <v>17.46919510004873</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,19 +462,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.68962024393795</v>
+        <v>14.3869011330943</v>
       </c>
       <c r="C3">
-        <v>17.64466769346562</v>
+        <v>10.61409342803636</v>
       </c>
       <c r="D3">
-        <v>3.549203684935264</v>
+        <v>3.65097749453512</v>
       </c>
       <c r="E3">
-        <v>27.92499286604802</v>
+        <v>15.63480355221651</v>
       </c>
       <c r="F3">
-        <v>16.47776860560779</v>
+        <v>19.73891381041926</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>12.431428790866</v>
+        <v>17.54996281088463</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,19 +503,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.60492527918622</v>
+        <v>13.85872582943154</v>
       </c>
       <c r="C4">
-        <v>16.90933012325679</v>
+        <v>10.21494742836907</v>
       </c>
       <c r="D4">
-        <v>3.47515541217814</v>
+        <v>3.626050790119419</v>
       </c>
       <c r="E4">
-        <v>26.50354375359367</v>
+        <v>15.02787072369468</v>
       </c>
       <c r="F4">
-        <v>16.05223206857258</v>
+        <v>19.74890707209335</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>12.27959786169246</v>
+        <v>17.6074872766523</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,19 +544,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.14825074560926</v>
+        <v>13.63750985203694</v>
       </c>
       <c r="C5">
-        <v>16.60059396399712</v>
+        <v>10.04725985989433</v>
       </c>
       <c r="D5">
-        <v>3.444591253825555</v>
+        <v>3.615854635603046</v>
       </c>
       <c r="E5">
-        <v>25.90840315500333</v>
+        <v>14.77448087684881</v>
       </c>
       <c r="F5">
-        <v>15.88393292375906</v>
+        <v>19.75552969658342</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.22427252772083</v>
+        <v>17.63290483321494</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,19 +585,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.07153306559324</v>
+        <v>13.60042211023479</v>
       </c>
       <c r="C6">
-        <v>16.54878209790365</v>
+        <v>10.01911457157782</v>
       </c>
       <c r="D6">
-        <v>3.439493503015288</v>
+        <v>3.61415948184738</v>
       </c>
       <c r="E6">
-        <v>25.80860973672094</v>
+        <v>14.73204855493091</v>
       </c>
       <c r="F6">
-        <v>15.85630028810583</v>
+        <v>19.75678291737364</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.21547393113618</v>
+        <v>17.63724417227236</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,19 +626,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.5988258385094</v>
+        <v>13.8557663731598</v>
       </c>
       <c r="C7">
-        <v>16.90520308125529</v>
+        <v>10.21270617651269</v>
       </c>
       <c r="D7">
-        <v>3.474744748061127</v>
+        <v>3.625913426264311</v>
       </c>
       <c r="E7">
-        <v>26.49558231965699</v>
+        <v>15.02447756294644</v>
       </c>
       <c r="F7">
-        <v>16.04994142332284</v>
+        <v>19.7489860829959</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>12.27882553987298</v>
+        <v>17.60782209203203</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,19 +667,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.79724513238602</v>
+        <v>14.92953414443551</v>
       </c>
       <c r="C8">
-        <v>18.39816421105845</v>
+        <v>11.02255680238469</v>
       </c>
       <c r="D8">
-        <v>3.626810743639836</v>
+        <v>3.677424094981955</v>
       </c>
       <c r="E8">
-        <v>29.38861838723011</v>
+        <v>16.26097475304845</v>
       </c>
       <c r="F8">
-        <v>16.94886448994903</v>
+        <v>19.73700978143365</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>12.61646505068276</v>
+        <v>17.49538620089033</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,19 +708,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.65338670781746</v>
+        <v>16.83407210579252</v>
       </c>
       <c r="C9">
-        <v>21.03733218039091</v>
+        <v>12.44595959867729</v>
       </c>
       <c r="D9">
-        <v>3.910833501597831</v>
+        <v>3.776655678919636</v>
       </c>
       <c r="E9">
-        <v>34.59291799026485</v>
+        <v>18.59159515867276</v>
       </c>
       <c r="F9">
-        <v>18.86098593319469</v>
+        <v>19.7949446420826</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>13.50010542385728</v>
+        <v>17.33865376030681</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,19 +749,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.21663200655024</v>
+        <v>18.1039505849988</v>
       </c>
       <c r="C10">
-        <v>22.80155215208464</v>
+        <v>13.38825905305182</v>
       </c>
       <c r="D10">
-        <v>4.109793125864409</v>
+        <v>3.848041828199405</v>
       </c>
       <c r="E10">
-        <v>38.16138516236101</v>
+        <v>20.24904979014259</v>
       </c>
       <c r="F10">
-        <v>20.44542078417879</v>
+        <v>19.8875623629176</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.31427006950555</v>
+        <v>17.26342360399078</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,19 +790,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.32603306422291</v>
+        <v>18.65257390207194</v>
       </c>
       <c r="C11">
-        <v>23.56688215889513</v>
+        <v>13.79405483640517</v>
       </c>
       <c r="D11">
-        <v>4.198057044315006</v>
+        <v>3.880098268908473</v>
       </c>
       <c r="E11">
-        <v>39.73728185718615</v>
+        <v>20.96075776667514</v>
       </c>
       <c r="F11">
-        <v>21.29484737048227</v>
+        <v>19.94057624441709</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.96079253444854</v>
+        <v>17.23807508470405</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,19 +831,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.73816752579622</v>
+        <v>18.85608603829845</v>
       </c>
       <c r="C12">
-        <v>23.85142181689534</v>
+        <v>13.9444083126921</v>
       </c>
       <c r="D12">
-        <v>4.231151705066713</v>
+        <v>3.892169936680048</v>
       </c>
       <c r="E12">
-        <v>40.32797812293967</v>
+        <v>21.22422159318808</v>
       </c>
       <c r="F12">
-        <v>21.61600614998272</v>
+        <v>19.96221098400179</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.20565789917911</v>
+        <v>17.22976779147638</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,19 +872,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.64975859882034</v>
+        <v>18.81244545916545</v>
       </c>
       <c r="C13">
-        <v>23.79037422394653</v>
+        <v>13.91217465645377</v>
       </c>
       <c r="D13">
-        <v>4.224038861108672</v>
+        <v>3.889573200256137</v>
       </c>
       <c r="E13">
-        <v>40.20101749717757</v>
+        <v>21.16774822534621</v>
       </c>
       <c r="F13">
-        <v>21.54685861497849</v>
+        <v>19.95748231843642</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.15291748331597</v>
+        <v>17.23149923406023</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,19 +913,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.36009832691859</v>
+        <v>18.66940224276311</v>
       </c>
       <c r="C14">
-        <v>23.59039659178791</v>
+        <v>13.80649101585829</v>
       </c>
       <c r="D14">
-        <v>4.200786375122339</v>
+        <v>3.881092804767366</v>
       </c>
       <c r="E14">
-        <v>39.78599556063121</v>
+        <v>20.98255403741254</v>
       </c>
       <c r="F14">
-        <v>21.32127844886119</v>
+        <v>19.94232493546568</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.98093606777855</v>
+        <v>17.23736566723153</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,19 +954,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.18164032250434</v>
+        <v>18.58123041413059</v>
       </c>
       <c r="C15">
-        <v>23.46722032222329</v>
+        <v>13.74132471131175</v>
       </c>
       <c r="D15">
-        <v>4.186500604036348</v>
+        <v>3.875889323592601</v>
       </c>
       <c r="E15">
-        <v>39.53101752026198</v>
+        <v>20.86833110078487</v>
       </c>
       <c r="F15">
-        <v>21.18304334203103</v>
+        <v>19.93324347833317</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.87560222826817</v>
+        <v>17.24112767902822</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,19 +995,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.14300474444728</v>
+        <v>18.06750654776319</v>
       </c>
       <c r="C16">
-        <v>22.75079327340473</v>
+        <v>13.36127700406613</v>
       </c>
       <c r="D16">
-        <v>4.103979078266648</v>
+        <v>3.845937828067923</v>
       </c>
       <c r="E16">
-        <v>38.05750480030047</v>
+        <v>20.20169026644631</v>
       </c>
       <c r="F16">
-        <v>20.38983120958805</v>
+        <v>19.88431638632261</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.27201665916555</v>
+        <v>17.2652601142246</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,19 +1036,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.49144733876656</v>
+        <v>17.74486417280591</v>
       </c>
       <c r="C17">
-        <v>22.30180444326484</v>
+        <v>13.12225453602907</v>
       </c>
       <c r="D17">
-        <v>4.052774197851558</v>
+        <v>3.827451312355486</v>
       </c>
       <c r="E17">
-        <v>37.14191444472407</v>
+        <v>19.78192449817088</v>
       </c>
       <c r="F17">
-        <v>19.91176280583495</v>
+        <v>19.85708572443544</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.05212850216342</v>
+        <v>17.28234886940117</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,19 +1077,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.11134693216889</v>
+        <v>17.55655712956199</v>
       </c>
       <c r="C18">
-        <v>22.04004847037259</v>
+        <v>12.98262434868256</v>
       </c>
       <c r="D18">
-        <v>4.023111407783546</v>
+        <v>3.816779490824612</v>
       </c>
       <c r="E18">
-        <v>36.61077703905606</v>
+        <v>19.53650500541305</v>
       </c>
       <c r="F18">
-        <v>19.68744503489814</v>
+        <v>19.84244815258743</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>13.93110318446042</v>
+        <v>17.29301227593966</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,19 +1118,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.98172905575073</v>
+        <v>17.49233256013565</v>
       </c>
       <c r="C19">
-        <v>21.95081757306326</v>
+        <v>12.93497945426967</v>
       </c>
       <c r="D19">
-        <v>4.013032105900112</v>
+        <v>3.813159748368181</v>
       </c>
       <c r="E19">
-        <v>36.430146347254</v>
+        <v>19.45272532330779</v>
       </c>
       <c r="F19">
-        <v>19.6117782739293</v>
+        <v>19.83766822721991</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.89064877444195</v>
+        <v>17.29676553953992</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,19 +1159,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.56135840668503</v>
+        <v>17.77949321805978</v>
       </c>
       <c r="C20">
-        <v>22.34996278246545</v>
+        <v>13.14792168900441</v>
       </c>
       <c r="D20">
-        <v>4.058246952476308</v>
+        <v>3.829423310232393</v>
       </c>
       <c r="E20">
-        <v>37.23984263539567</v>
+        <v>19.8270210794926</v>
       </c>
       <c r="F20">
-        <v>19.95414440513955</v>
+        <v>19.85987843969546</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.07477657304353</v>
+        <v>17.28044326825091</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,19 +1200,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.44539345561694</v>
+        <v>18.71153299112191</v>
       </c>
       <c r="C21">
-        <v>23.64927728798787</v>
+        <v>13.8376229314562</v>
       </c>
       <c r="D21">
-        <v>4.207625149968111</v>
+        <v>3.883585589698038</v>
       </c>
       <c r="E21">
-        <v>39.90805550900862</v>
+        <v>21.03711383061446</v>
       </c>
       <c r="F21">
-        <v>21.38754917194913</v>
+        <v>19.94673476135729</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>15.03144886041109</v>
+        <v>17.23560738050466</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,19 +1241,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.63034798142272</v>
+        <v>19.29594365801019</v>
       </c>
       <c r="C22">
-        <v>24.467762828175</v>
+        <v>14.26906731943327</v>
       </c>
       <c r="D22">
-        <v>4.303335265980405</v>
+        <v>3.918587586866277</v>
       </c>
       <c r="E22">
-        <v>41.61698786295596</v>
+        <v>21.79276318518961</v>
       </c>
       <c r="F22">
-        <v>22.32154938187185</v>
+        <v>20.01258546668178</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.74439270330418</v>
+        <v>17.21383959900516</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,19 +1282,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.0020966618235</v>
+        <v>18.98631264627127</v>
       </c>
       <c r="C23">
-        <v>24.03369893303744</v>
+        <v>14.04057124366009</v>
       </c>
       <c r="D23">
-        <v>4.252429302636441</v>
+        <v>3.899944992668285</v>
       </c>
       <c r="E23">
-        <v>40.70781262930205</v>
+        <v>21.39266975740218</v>
       </c>
       <c r="F23">
-        <v>21.82325798658896</v>
+        <v>19.97661112012243</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.36379688885591</v>
+        <v>17.22476317425515</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,19 +1323,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.52976879234449</v>
+        <v>17.76384619196211</v>
       </c>
       <c r="C24">
-        <v>22.32820169814326</v>
+        <v>13.13632446018795</v>
       </c>
       <c r="D24">
-        <v>4.055773418604816</v>
+        <v>3.828531905456983</v>
       </c>
       <c r="E24">
-        <v>37.19558415843304</v>
+        <v>19.80664565929584</v>
       </c>
       <c r="F24">
-        <v>19.93457834027493</v>
+        <v>19.85861268274044</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.0645280278987</v>
+        <v>17.28130217875398</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.65818390843043</v>
+        <v>16.34116850601542</v>
       </c>
       <c r="C25">
-        <v>20.35422568467486</v>
+        <v>12.07888989524571</v>
       </c>
       <c r="D25">
-        <v>3.835641781478893</v>
+        <v>3.75004685495666</v>
       </c>
       <c r="E25">
-        <v>33.23225014274492</v>
+        <v>17.94350157946699</v>
       </c>
       <c r="F25">
-        <v>18.32857825606559</v>
+        <v>19.77049761042823</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>13.23635424948294</v>
+        <v>17.37411645601009</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_129/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_129/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.20717213437361</v>
+        <v>25.36187159538038</v>
       </c>
       <c r="C2">
-        <v>11.23098386416958</v>
+        <v>18.78316758016594</v>
       </c>
       <c r="D2">
-        <v>3.691276806880144</v>
+        <v>3.667102608023719</v>
       </c>
       <c r="E2">
-        <v>16.58230678704313</v>
+        <v>30.13972387202395</v>
       </c>
       <c r="F2">
-        <v>19.73925079067827</v>
+        <v>17.20286171920607</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>17.46919510004873</v>
+        <v>12.72255374862498</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,19 +462,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.3869011330943</v>
+        <v>23.689620243938</v>
       </c>
       <c r="C3">
-        <v>10.61409342803636</v>
+        <v>17.64466769346558</v>
       </c>
       <c r="D3">
-        <v>3.65097749453512</v>
+        <v>3.549203684935295</v>
       </c>
       <c r="E3">
-        <v>15.63480355221651</v>
+        <v>27.92499286604799</v>
       </c>
       <c r="F3">
-        <v>19.73891381041926</v>
+        <v>16.47776860560776</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>17.54996281088463</v>
+        <v>12.43142879086597</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,19 +503,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.85872582943154</v>
+        <v>22.60492527918626</v>
       </c>
       <c r="C4">
-        <v>10.21494742836907</v>
+        <v>16.90933012325683</v>
       </c>
       <c r="D4">
-        <v>3.626050790119419</v>
+        <v>3.47515541217814</v>
       </c>
       <c r="E4">
-        <v>15.02787072369468</v>
+        <v>26.50354375359373</v>
       </c>
       <c r="F4">
-        <v>19.74890707209335</v>
+        <v>16.05223206857244</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>17.6074872766523</v>
+        <v>12.27959786169233</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,19 +544,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.63750985203694</v>
+        <v>22.14825074560924</v>
       </c>
       <c r="C5">
-        <v>10.04725985989433</v>
+        <v>16.60059396399711</v>
       </c>
       <c r="D5">
-        <v>3.615854635603046</v>
+        <v>3.444591253825666</v>
       </c>
       <c r="E5">
-        <v>14.77448087684881</v>
+        <v>25.90840315500346</v>
       </c>
       <c r="F5">
-        <v>19.75552969658342</v>
+        <v>15.88393292375913</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>17.63290483321494</v>
+        <v>12.22427252772091</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,19 +585,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.60042211023479</v>
+        <v>22.07153306559324</v>
       </c>
       <c r="C6">
-        <v>10.01911457157782</v>
+        <v>16.54878209790377</v>
       </c>
       <c r="D6">
-        <v>3.61415948184738</v>
+        <v>3.439493503015306</v>
       </c>
       <c r="E6">
-        <v>14.73204855493091</v>
+        <v>25.80860973672094</v>
       </c>
       <c r="F6">
-        <v>19.75678291737364</v>
+        <v>15.85630028810577</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>17.63724417227236</v>
+        <v>12.21547393113612</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,19 +626,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.8557663731598</v>
+        <v>22.59882583850941</v>
       </c>
       <c r="C7">
-        <v>10.21270617651269</v>
+        <v>16.90520308125536</v>
       </c>
       <c r="D7">
-        <v>3.625913426264311</v>
+        <v>3.474744748061082</v>
       </c>
       <c r="E7">
-        <v>15.02447756294644</v>
+        <v>26.49558231965702</v>
       </c>
       <c r="F7">
-        <v>19.7489860829959</v>
+        <v>16.04994142332276</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>17.60782209203203</v>
+        <v>12.27882553987289</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,19 +667,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.92953414443551</v>
+        <v>24.79724513238607</v>
       </c>
       <c r="C8">
-        <v>11.02255680238469</v>
+        <v>18.39816421105844</v>
       </c>
       <c r="D8">
-        <v>3.677424094981955</v>
+        <v>3.626810743639947</v>
       </c>
       <c r="E8">
-        <v>16.26097475304845</v>
+        <v>29.38861838723016</v>
       </c>
       <c r="F8">
-        <v>19.73700978143365</v>
+        <v>16.94886448994896</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>17.49538620089033</v>
+        <v>12.6164650506827</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,19 +708,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.83407210579252</v>
+        <v>28.6533867078174</v>
       </c>
       <c r="C9">
-        <v>12.44595959867729</v>
+        <v>21.03733218039096</v>
       </c>
       <c r="D9">
-        <v>3.776655678919636</v>
+        <v>3.910833501597913</v>
       </c>
       <c r="E9">
-        <v>18.59159515867276</v>
+        <v>34.59291799026477</v>
       </c>
       <c r="F9">
-        <v>19.7949446420826</v>
+        <v>18.86098593319473</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>17.33865376030681</v>
+        <v>13.50010542385733</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,19 +749,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.1039505849988</v>
+        <v>31.21663200655026</v>
       </c>
       <c r="C10">
-        <v>13.38825905305182</v>
+        <v>22.80155215208468</v>
       </c>
       <c r="D10">
-        <v>3.848041828199405</v>
+        <v>4.109793125864451</v>
       </c>
       <c r="E10">
-        <v>20.24904979014259</v>
+        <v>38.16138516236104</v>
       </c>
       <c r="F10">
-        <v>19.8875623629176</v>
+        <v>20.44542078417891</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>17.26342360399078</v>
+        <v>14.31427006950566</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,19 +790,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.65257390207194</v>
+        <v>32.32603306422287</v>
       </c>
       <c r="C11">
-        <v>13.79405483640517</v>
+        <v>23.56688215889526</v>
       </c>
       <c r="D11">
-        <v>3.880098268908473</v>
+        <v>4.198057044315045</v>
       </c>
       <c r="E11">
-        <v>20.96075776667514</v>
+        <v>39.73728185718598</v>
       </c>
       <c r="F11">
-        <v>19.94057624441709</v>
+        <v>21.29484737048217</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>17.23807508470405</v>
+        <v>14.96079253444845</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,19 +831,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.85608603829845</v>
+        <v>32.73816752579625</v>
       </c>
       <c r="C12">
-        <v>13.9444083126921</v>
+        <v>23.85142181689536</v>
       </c>
       <c r="D12">
-        <v>3.892169936680048</v>
+        <v>4.231151705066806</v>
       </c>
       <c r="E12">
-        <v>21.22422159318808</v>
+        <v>40.32797812293973</v>
       </c>
       <c r="F12">
-        <v>19.96221098400179</v>
+        <v>21.6160061499828</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>17.22976779147638</v>
+        <v>15.20565789917917</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,19 +872,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.81244545916545</v>
+        <v>32.64975859882043</v>
       </c>
       <c r="C13">
-        <v>13.91217465645377</v>
+        <v>23.79037422394658</v>
       </c>
       <c r="D13">
-        <v>3.889573200256137</v>
+        <v>4.224038861108671</v>
       </c>
       <c r="E13">
-        <v>21.16774822534621</v>
+        <v>40.2010174971775</v>
       </c>
       <c r="F13">
-        <v>19.95748231843642</v>
+        <v>21.54685861497861</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>17.23149923406023</v>
+        <v>15.15291748331609</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,19 +913,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.66940224276311</v>
+        <v>32.36009832691864</v>
       </c>
       <c r="C14">
-        <v>13.80649101585829</v>
+        <v>23.59039659178793</v>
       </c>
       <c r="D14">
-        <v>3.881092804767366</v>
+        <v>4.200786375122458</v>
       </c>
       <c r="E14">
-        <v>20.98255403741254</v>
+        <v>39.78599556063128</v>
       </c>
       <c r="F14">
-        <v>19.94232493546568</v>
+        <v>21.32127844886122</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>17.23736566723153</v>
+        <v>14.98093606777856</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,19 +954,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.58123041413059</v>
+        <v>32.18164032250442</v>
       </c>
       <c r="C15">
-        <v>13.74132471131175</v>
+        <v>23.46722032222328</v>
       </c>
       <c r="D15">
-        <v>3.875889323592601</v>
+        <v>4.186500604036341</v>
       </c>
       <c r="E15">
-        <v>20.86833110078487</v>
+        <v>39.53101752026208</v>
       </c>
       <c r="F15">
-        <v>19.93324347833317</v>
+        <v>21.18304334203111</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>17.24112767902822</v>
+        <v>14.87560222826824</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,19 +995,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.06750654776319</v>
+        <v>31.14300474444719</v>
       </c>
       <c r="C16">
-        <v>13.36127700406613</v>
+        <v>22.75079327340479</v>
       </c>
       <c r="D16">
-        <v>3.845937828067923</v>
+        <v>4.103979078266737</v>
       </c>
       <c r="E16">
-        <v>20.20169026644631</v>
+        <v>38.05750480030031</v>
       </c>
       <c r="F16">
-        <v>19.88431638632261</v>
+        <v>20.38983120958807</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>17.2652601142246</v>
+        <v>14.27201665916554</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,19 +1036,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.74486417280591</v>
+        <v>30.49144733876658</v>
       </c>
       <c r="C17">
-        <v>13.12225453602907</v>
+        <v>22.30180444326482</v>
       </c>
       <c r="D17">
-        <v>3.827451312355486</v>
+        <v>4.052774197851628</v>
       </c>
       <c r="E17">
-        <v>19.78192449817088</v>
+        <v>37.14191444472398</v>
       </c>
       <c r="F17">
-        <v>19.85708572443544</v>
+        <v>19.91176280583492</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>17.28234886940117</v>
+        <v>14.05212850216342</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,19 +1077,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.55655712956199</v>
+        <v>30.11134693216894</v>
       </c>
       <c r="C18">
-        <v>12.98262434868256</v>
+        <v>22.04004847037247</v>
       </c>
       <c r="D18">
-        <v>3.816779490824612</v>
+        <v>4.023111407783667</v>
       </c>
       <c r="E18">
-        <v>19.53650500541305</v>
+        <v>36.61077703905608</v>
       </c>
       <c r="F18">
-        <v>19.84244815258743</v>
+        <v>19.68744503489815</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>17.29301227593966</v>
+        <v>13.93110318446045</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,19 +1118,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.49233256013565</v>
+        <v>29.98172905575069</v>
       </c>
       <c r="C19">
-        <v>12.93497945426967</v>
+        <v>21.95081757306328</v>
       </c>
       <c r="D19">
-        <v>3.813159748368181</v>
+        <v>4.01303210590007</v>
       </c>
       <c r="E19">
-        <v>19.45272532330779</v>
+        <v>36.43014634725398</v>
       </c>
       <c r="F19">
-        <v>19.83766822721991</v>
+        <v>19.6117782739293</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.29676553953992</v>
+        <v>13.89064877444195</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,19 +1159,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.77949321805978</v>
+        <v>30.56135840668509</v>
       </c>
       <c r="C20">
-        <v>13.14792168900441</v>
+        <v>22.34996278246549</v>
       </c>
       <c r="D20">
-        <v>3.829423310232393</v>
+        <v>4.058246952476309</v>
       </c>
       <c r="E20">
-        <v>19.8270210794926</v>
+        <v>37.23984263539565</v>
       </c>
       <c r="F20">
-        <v>19.85987843969546</v>
+        <v>19.95414440513955</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>17.28044326825091</v>
+        <v>14.07477657304352</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,19 +1200,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.71153299112191</v>
+        <v>32.44539345561697</v>
       </c>
       <c r="C21">
-        <v>13.8376229314562</v>
+        <v>23.64927728798796</v>
       </c>
       <c r="D21">
-        <v>3.883585589698038</v>
+        <v>4.207625149968112</v>
       </c>
       <c r="E21">
-        <v>21.03711383061446</v>
+        <v>39.90805550900857</v>
       </c>
       <c r="F21">
-        <v>19.94673476135729</v>
+        <v>21.38754917194911</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.23560738050466</v>
+        <v>15.03144886041105</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,19 +1241,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.29594365801019</v>
+        <v>33.63034798142267</v>
       </c>
       <c r="C22">
-        <v>14.26906731943327</v>
+        <v>24.46776282817499</v>
       </c>
       <c r="D22">
-        <v>3.918587586866277</v>
+        <v>4.303335265980414</v>
       </c>
       <c r="E22">
-        <v>21.79276318518961</v>
+        <v>41.6169878629559</v>
       </c>
       <c r="F22">
-        <v>20.01258546668178</v>
+        <v>22.32154938187173</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>17.21383959900516</v>
+        <v>15.74439270330405</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,19 +1282,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.98631264627127</v>
+        <v>33.00209666182349</v>
       </c>
       <c r="C23">
-        <v>14.04057124366009</v>
+        <v>24.03369893303752</v>
       </c>
       <c r="D23">
-        <v>3.899944992668285</v>
+        <v>4.252429302636425</v>
       </c>
       <c r="E23">
-        <v>21.39266975740218</v>
+        <v>40.70781262930217</v>
       </c>
       <c r="F23">
-        <v>19.97661112012243</v>
+        <v>21.82325798658903</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>17.22476317425515</v>
+        <v>15.36379688885599</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,19 +1323,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.76384619196211</v>
+        <v>30.52976879234458</v>
       </c>
       <c r="C24">
-        <v>13.13632446018795</v>
+        <v>22.32820169814319</v>
       </c>
       <c r="D24">
-        <v>3.828531905456983</v>
+        <v>4.055773418604783</v>
       </c>
       <c r="E24">
-        <v>19.80664565929584</v>
+        <v>37.19558415843314</v>
       </c>
       <c r="F24">
-        <v>19.85861268274044</v>
+        <v>19.93457834027497</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>17.28130217875398</v>
+        <v>14.0645280278987</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.34116850601542</v>
+        <v>27.65818390843033</v>
       </c>
       <c r="C25">
-        <v>12.07888989524571</v>
+        <v>20.35422568467478</v>
       </c>
       <c r="D25">
-        <v>3.75004685495666</v>
+        <v>3.835641781478925</v>
       </c>
       <c r="E25">
-        <v>17.94350157946699</v>
+        <v>33.23225014274483</v>
       </c>
       <c r="F25">
-        <v>19.77049761042823</v>
+        <v>18.32857825606563</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>17.37411645601009</v>
+        <v>13.23635424948305</v>
       </c>
     </row>
   </sheetData>
